--- a/domace_naloge/1.naloga/belezka_napak.xlsx
+++ b/domace_naloge/1.naloga/belezka_napak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\2.Letnik\4.semester\Testiranje_in_kakovost\domace_naloge\1.naloga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373428C-32B8-4BC3-A3FB-A3016BB24498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596BC35-FCB3-44BC-A0F7-22673AF2623D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t xml:space="preserve">Izvajalec: </t>
   </si>
@@ -62,12 +62,6 @@
     <t>Načrtovanje</t>
   </si>
   <si>
-    <t>Kodiranje(T)</t>
-  </si>
-  <si>
-    <t>Kodiranje(P)</t>
-  </si>
-  <si>
     <t>Pregled kode</t>
   </si>
   <si>
@@ -186,6 +180,9 @@
   </si>
   <si>
     <t>Opis napake: Nedosegljiva koda metode merge razreda BinomskaKopica</t>
+  </si>
+  <si>
+    <t>Kodiranje(T+P)</t>
   </si>
 </sst>
 </file>
@@ -612,15 +609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -631,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
@@ -662,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,13 +685,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6">
         <v>8</v>
@@ -703,7 +700,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="9"/>
@@ -720,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="13">
         <v>2</v>
@@ -735,7 +732,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
@@ -752,13 +749,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -767,7 +764,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -784,13 +781,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6">
         <v>5</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -816,13 +813,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -833,7 +830,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -850,13 +847,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -867,7 +864,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -884,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -901,7 +898,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -918,13 +915,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="14">
         <v>1</v>
@@ -935,7 +932,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -952,13 +949,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="14">
         <v>3</v>
@@ -967,7 +964,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
@@ -984,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="14">
         <v>2</v>
@@ -999,7 +996,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
@@ -1016,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="14">
         <v>1</v>
@@ -1031,7 +1028,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
@@ -1048,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
@@ -1063,7 +1060,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
@@ -1080,13 +1077,13 @@
         <v>13</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="14">
         <v>1</v>
@@ -1095,7 +1092,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
@@ -1112,13 +1109,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="14">
         <v>4</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
@@ -1146,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="14">
         <v>2</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
@@ -1178,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="14">
         <v>1</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
@@ -1212,13 +1209,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F37" s="14">
         <v>2</v>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
@@ -1244,13 +1241,13 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" s="14">
         <v>3</v>
@@ -1259,7 +1256,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="10"/>
@@ -1276,13 +1273,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" s="14">
         <v>2</v>
@@ -1291,7 +1288,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="10"/>
@@ -1308,13 +1305,13 @@
         <v>21</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" s="14">
         <v>1</v>
@@ -1325,7 +1322,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
@@ -1342,13 +1339,13 @@
         <v>22</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" s="14">
         <v>7</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="10"/>
@@ -1374,13 +1371,13 @@
         <v>23</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47" s="14">
         <v>2</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="10"/>
@@ -1408,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49" s="14">
         <v>3</v>
@@ -1423,7 +1420,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="10"/>
@@ -1440,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" s="14">
         <v>8</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
@@ -1472,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F53" s="14">
         <v>2</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
@@ -1506,13 +1503,13 @@
         <v>27</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="14">
         <v>2</v>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
@@ -1538,13 +1535,13 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57" s="14">
         <v>4</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
@@ -1572,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" s="14">
         <v>3</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
@@ -1604,13 +1601,13 @@
         <v>30</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" s="14">
         <v>2</v>
@@ -1619,7 +1616,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
@@ -1636,13 +1633,13 @@
         <v>31</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63" s="14">
         <v>1</v>
@@ -1651,7 +1648,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
@@ -1668,13 +1665,13 @@
         <v>32</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" s="14">
         <v>3</v>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
@@ -1700,13 +1697,13 @@
         <v>33</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" s="14">
         <v>6</v>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
@@ -1732,13 +1729,13 @@
         <v>34</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69" s="14">
         <v>1</v>
@@ -1747,7 +1744,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
